--- a/図書貸出システム/正規化してみた.xlsx
+++ b/図書貸出システム/正規化してみた.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="40">
   <si>
     <t xml:space="preserve">図書貸出カード</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t xml:space="preserve">第3正規形</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推移的関数従属というのは、主キー以外のキーに従属している項目のことである。</t>
   </si>
 </sst>
 </file>
@@ -353,12 +356,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -550,10 +553,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:XFD1048576"/>
+  <dimension ref="B2:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G56" activeCellId="0" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -561,7 +564,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.88"/>
@@ -874,13 +878,13 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
@@ -889,7 +893,7 @@
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -898,10 +902,6 @@
       <c r="H24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="XFA24" s="0"/>
-      <c r="XFB24" s="0"/>
-      <c r="XFC24" s="0"/>
-      <c r="XFD24" s="0"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
@@ -910,7 +910,7 @@
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -919,10 +919,6 @@
       <c r="H25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="XFA25" s="0"/>
-      <c r="XFB25" s="0"/>
-      <c r="XFC25" s="0"/>
-      <c r="XFD25" s="0"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
@@ -931,7 +927,7 @@
       <c r="C26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="7" t="n">
         <v>2</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -940,10 +936,6 @@
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="XFA26" s="0"/>
-      <c r="XFB26" s="0"/>
-      <c r="XFC26" s="0"/>
-      <c r="XFD26" s="0"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
@@ -952,7 +944,7 @@
       <c r="C27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="7" t="n">
         <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -961,10 +953,6 @@
       <c r="H27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="XFA27" s="0"/>
-      <c r="XFB27" s="0"/>
-      <c r="XFC27" s="0"/>
-      <c r="XFD27" s="0"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
@@ -973,7 +961,7 @@
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="7" t="n">
         <v>4</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -982,10 +970,6 @@
       <c r="H28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="XFA28" s="0"/>
-      <c r="XFB28" s="0"/>
-      <c r="XFC28" s="0"/>
-      <c r="XFD28" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
@@ -1039,8 +1023,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
@@ -1118,7 +1102,6 @@
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="XFD44" s="0"/>
     </row>
     <row r="45" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
@@ -1127,7 +1110,6 @@
       <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="XFD45" s="0"/>
     </row>
     <row r="46" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
@@ -1136,7 +1118,6 @@
       <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="XFD46" s="0"/>
     </row>
     <row r="47" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3" t="s">
@@ -1145,7 +1126,6 @@
       <c r="C47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="XFD47" s="0"/>
     </row>
     <row r="48" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
@@ -1154,7 +1134,6 @@
       <c r="C48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="XFD48" s="0"/>
     </row>
     <row r="50" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
@@ -1276,6 +1255,15 @@
       <c r="D62" s="2" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1311,7 +1299,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
@@ -1320,6 +1308,7 @@
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B64:F64"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
